--- a/generated_files/gsa_results/ege_N500/sobol_first.xlsx
+++ b/generated_files/gsa_results/ege_N500/sobol_first.xlsx
@@ -537,52 +537,52 @@
         <v>17</v>
       </c>
       <c r="C2">
-        <v>0.0004195850994314693</v>
+        <v>0.0003694006626092951</v>
       </c>
       <c r="D2">
-        <v>0.0004384277430844729</v>
+        <v>0.0004832981732524124</v>
       </c>
       <c r="E2">
-        <v>0.0008023242214313263</v>
+        <v>0.0007524054301666871</v>
       </c>
       <c r="F2">
-        <v>0.0006056736935224392</v>
+        <v>0.0006512797602584207</v>
       </c>
       <c r="G2">
-        <v>0.001880959432041593</v>
+        <v>0.001819429364446934</v>
       </c>
       <c r="H2">
-        <v>0.0009368239577796809</v>
+        <v>0.0008872493642230999</v>
       </c>
       <c r="I2">
-        <v>0.0002973567600373046</v>
+        <v>0.000247242744182664</v>
       </c>
       <c r="J2">
-        <v>0.0008943889876090165</v>
+        <v>0.0008444505941879484</v>
       </c>
       <c r="K2">
-        <v>0.001326692511947374</v>
+        <v>0.001370834872060491</v>
       </c>
       <c r="L2">
-        <v>0.0004615434175632619</v>
+        <v>0.0005068372995787378</v>
       </c>
       <c r="M2">
-        <v>0.0009651160004425434</v>
+        <v>0.0009157119943867388</v>
       </c>
       <c r="N2">
-        <v>0.0009631911367361577</v>
+        <v>0.0009137910345682483</v>
       </c>
       <c r="O2">
-        <v>0.002205713541960152</v>
+        <v>0.002241960222980794</v>
       </c>
       <c r="P2">
-        <v>0.0001984639369378938</v>
+        <v>0.0001527841110087956</v>
       </c>
       <c r="Q2">
-        <v>0.0006160415307235537</v>
+        <v>0.0005661749437552161</v>
       </c>
       <c r="R2">
-        <v>0.0003835891341746678</v>
+        <v>0.0004322998531543227</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -593,52 +593,52 @@
         <v>18</v>
       </c>
       <c r="C3">
-        <v>0.02990770771351831</v>
+        <v>0.0299430988146334</v>
       </c>
       <c r="D3">
-        <v>0.03008950675612823</v>
+        <v>0.03011807024104158</v>
       </c>
       <c r="E3">
-        <v>0.02887549977024883</v>
+        <v>0.02891177338022618</v>
       </c>
       <c r="F3">
-        <v>0.03040043951835109</v>
+        <v>0.03042972077016277</v>
       </c>
       <c r="G3">
-        <v>0.02883668176937399</v>
+        <v>0.02888387177999351</v>
       </c>
       <c r="H3">
-        <v>0.0286112451956668</v>
+        <v>0.028647623698241</v>
       </c>
       <c r="I3">
-        <v>0.03015666264552376</v>
+        <v>0.03018978139872745</v>
       </c>
       <c r="J3">
-        <v>0.0287358112058528</v>
+        <v>0.02877226668005386</v>
       </c>
       <c r="K3">
-        <v>0.03085834535487193</v>
+        <v>0.03088693758182823</v>
       </c>
       <c r="L3">
-        <v>0.02976615654757957</v>
+        <v>0.02979470820473974</v>
       </c>
       <c r="M3">
-        <v>0.02844548145823051</v>
+        <v>0.02848189833659302</v>
       </c>
       <c r="N3">
-        <v>0.02843196668080399</v>
+        <v>0.0284683938040386</v>
       </c>
       <c r="O3">
-        <v>0.02918765348306631</v>
+        <v>0.0292048182529899</v>
       </c>
       <c r="P3">
-        <v>0.02913319448814393</v>
+        <v>0.02916154348066001</v>
       </c>
       <c r="Q3">
-        <v>0.02959677672241065</v>
+        <v>0.02963185114248504</v>
       </c>
       <c r="R3">
-        <v>0.03030753904990639</v>
+        <v>0.03033841715830705</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -649,52 +649,52 @@
         <v>19</v>
       </c>
       <c r="C4">
-        <v>5.903714808575196e-05</v>
+        <v>5.967189034175776E-05</v>
       </c>
       <c r="D4">
-        <v>0.0001850637503192026</v>
+        <v>0.0001864330327089894</v>
       </c>
       <c r="E4">
-        <v>2.682754735652086e-05</v>
+        <v>2.713419760272555E-05</v>
       </c>
       <c r="F4">
-        <v>0.0001504120106593064</v>
+        <v>0.0001516117737651052</v>
       </c>
       <c r="G4">
-        <v>1.869372442693581e-05</v>
+        <v>1.895568478553521E-05</v>
       </c>
       <c r="H4">
-        <v>1.572765780972138e-05</v>
+        <v>1.591359894995867E-05</v>
       </c>
       <c r="I4">
-        <v>0.0002004136126966379</v>
+        <v>0.0002020703066448247</v>
       </c>
       <c r="J4">
-        <v>2.472055324965148e-05</v>
+        <v>2.500813153305486E-05</v>
       </c>
       <c r="K4">
-        <v>6.487363060477506e-05</v>
+        <v>6.54662500908929E-05</v>
       </c>
       <c r="L4">
-        <v>0.0001968194066661293</v>
+        <v>0.0001983820977885121</v>
       </c>
       <c r="M4">
-        <v>1.097040732285809e-05</v>
+        <v>1.110324392440859E-05</v>
       </c>
       <c r="N4">
-        <v>1.137973267215304e-05</v>
+        <v>1.151764351648655E-05</v>
       </c>
       <c r="O4">
-        <v>0.0001359952972201525</v>
+        <v>0.0001378817123283531</v>
       </c>
       <c r="P4">
-        <v>0.00027047604466298</v>
+        <v>0.0002724582597848716</v>
       </c>
       <c r="Q4">
-        <v>5.775179571694859e-05</v>
+        <v>5.835232872457141E-05</v>
       </c>
       <c r="R4">
-        <v>0.0002804533001747518</v>
+        <v>0.00028283615268866</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -705,52 +705,52 @@
         <v>20</v>
       </c>
       <c r="C5">
-        <v>0.8087195227376779</v>
+        <v>0.8083482148728579</v>
       </c>
       <c r="D5">
-        <v>0.7096688649463778</v>
+        <v>0.709308356954515</v>
       </c>
       <c r="E5">
-        <v>0.8122236592123266</v>
+        <v>0.8118659748946103</v>
       </c>
       <c r="F5">
-        <v>0.7239859371273126</v>
+        <v>0.723614963396917</v>
       </c>
       <c r="G5">
-        <v>0.8077831731737403</v>
+        <v>0.8074275684741059</v>
       </c>
       <c r="H5">
-        <v>0.8108368087646376</v>
+        <v>0.8104870718616337</v>
       </c>
       <c r="I5">
-        <v>0.779930361018401</v>
+        <v>0.7795440169113658</v>
       </c>
       <c r="J5">
-        <v>0.8118046876775694</v>
+        <v>0.8114505472766286</v>
       </c>
       <c r="K5">
-        <v>0.722477022114675</v>
+        <v>0.7221036249592591</v>
       </c>
       <c r="L5">
-        <v>0.7298399042133694</v>
+        <v>0.7294603221816285</v>
       </c>
       <c r="M5">
-        <v>0.8107229084750753</v>
+        <v>0.8103760914115146</v>
       </c>
       <c r="N5">
-        <v>0.8107449027903901</v>
+        <v>0.8103984424717819</v>
       </c>
       <c r="O5">
-        <v>0.7308075381028221</v>
+        <v>0.7304263219321343</v>
       </c>
       <c r="P5">
-        <v>0.7332168024134678</v>
+        <v>0.7328355133997444</v>
       </c>
       <c r="Q5">
-        <v>0.8091823826869164</v>
+        <v>0.8088077534355714</v>
       </c>
       <c r="R5">
-        <v>0.7524922471975964</v>
+        <v>0.7521078800866612</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -761,52 +761,52 @@
         <v>21</v>
       </c>
       <c r="C6">
-        <v>0.018092135093271</v>
+        <v>0.01806718675958033</v>
       </c>
       <c r="D6">
-        <v>0.01699200999012425</v>
+        <v>0.01696940751885126</v>
       </c>
       <c r="E6">
-        <v>0.01819487269780935</v>
+        <v>0.0181704204159663</v>
       </c>
       <c r="F6">
-        <v>0.01757984322063356</v>
+        <v>0.01755621232927815</v>
       </c>
       <c r="G6">
-        <v>0.0211017078208923</v>
+        <v>0.02106520267776679</v>
       </c>
       <c r="H6">
-        <v>0.01813982456472477</v>
+        <v>0.01811582856913802</v>
       </c>
       <c r="I6">
-        <v>0.01767191349517704</v>
+        <v>0.01764631154214616</v>
       </c>
       <c r="J6">
-        <v>0.01820338712074162</v>
+        <v>0.01817899412668372</v>
       </c>
       <c r="K6">
-        <v>0.01841086059209622</v>
+        <v>0.01838764025384024</v>
       </c>
       <c r="L6">
-        <v>0.01745896451705041</v>
+        <v>0.01743456546899873</v>
       </c>
       <c r="M6">
-        <v>0.01811852196469206</v>
+        <v>0.01809465352501537</v>
       </c>
       <c r="N6">
-        <v>0.01810843852795742</v>
+        <v>0.01808459492352249</v>
       </c>
       <c r="O6">
-        <v>0.01551843903646672</v>
+        <v>0.01549443683446662</v>
       </c>
       <c r="P6">
-        <v>0.01691709403868814</v>
+        <v>0.01689236028440588</v>
       </c>
       <c r="Q6">
-        <v>0.01825130341548306</v>
+        <v>0.01822634268935798</v>
       </c>
       <c r="R6">
-        <v>0.01757700088728976</v>
+        <v>0.0175506576827342</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -817,52 +817,52 @@
         <v>22</v>
       </c>
       <c r="C7">
-        <v>0.001994827207998521</v>
+        <v>0.002000725896376217</v>
       </c>
       <c r="D7">
-        <v>0.0006482217629976399</v>
+        <v>0.0006538527297685998</v>
       </c>
       <c r="E7">
-        <v>0.002201802307200088</v>
+        <v>0.002207529780975677</v>
       </c>
       <c r="F7">
-        <v>0.0008359848541769613</v>
+        <v>0.000841767802464814</v>
       </c>
       <c r="G7">
-        <v>0.002456712520044164</v>
+        <v>0.002466652849858811</v>
       </c>
       <c r="H7">
-        <v>0.002294041071258161</v>
+        <v>0.002299632177442047</v>
       </c>
       <c r="I7">
-        <v>0.00119644607518535</v>
+        <v>0.001202864097463079</v>
       </c>
       <c r="J7">
-        <v>0.002247737783405476</v>
+        <v>0.002253454431322298</v>
       </c>
       <c r="K7">
-        <v>0.001085425518103988</v>
+        <v>0.00109069599542727</v>
       </c>
       <c r="L7">
-        <v>0.0008114636643941523</v>
+        <v>0.0008175281403364861</v>
       </c>
       <c r="M7">
-        <v>0.002343112442495772</v>
+        <v>0.002348663641721519</v>
       </c>
       <c r="N7">
-        <v>0.002346396484905062</v>
+        <v>0.002351942005969848</v>
       </c>
       <c r="O7">
-        <v>0.00157856995582764</v>
+        <v>0.001584420637669866</v>
       </c>
       <c r="P7">
-        <v>0.0006679403732199582</v>
+        <v>0.000674315525343979</v>
       </c>
       <c r="Q7">
-        <v>0.001941190494192476</v>
+        <v>0.001947052411775224</v>
       </c>
       <c r="R7">
-        <v>0.001075979713300328</v>
+        <v>0.00108271628243504</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -873,52 +873,52 @@
         <v>23</v>
       </c>
       <c r="C8">
-        <v>0.003196725217791535</v>
+        <v>0.003229592399741768</v>
       </c>
       <c r="D8">
-        <v>0.003137116971156954</v>
+        <v>0.003165942083035991</v>
       </c>
       <c r="E8">
-        <v>0.003154005744210817</v>
+        <v>0.003186299964664555</v>
       </c>
       <c r="F8">
-        <v>0.003160257526633071</v>
+        <v>0.00319028457823774</v>
       </c>
       <c r="G8">
-        <v>0.003296581581466049</v>
+        <v>0.003350569234788237</v>
       </c>
       <c r="H8">
-        <v>0.003119049967927269</v>
+        <v>0.003150779121822902</v>
       </c>
       <c r="I8">
-        <v>0.003327054059076259</v>
+        <v>0.003360929584275697</v>
       </c>
       <c r="J8">
-        <v>0.003140705166365</v>
+        <v>0.003173008338880683</v>
       </c>
       <c r="K8">
-        <v>0.003086969307485872</v>
+        <v>0.003115048331479673</v>
       </c>
       <c r="L8">
-        <v>0.00319331814359204</v>
+        <v>0.003224711774532674</v>
       </c>
       <c r="M8">
-        <v>0.003100758424120395</v>
+        <v>0.003132360919407071</v>
       </c>
       <c r="N8">
-        <v>0.003098785849634098</v>
+        <v>0.003130362877365503</v>
       </c>
       <c r="O8">
-        <v>0.002805664930509903</v>
+        <v>0.002838107550726753</v>
       </c>
       <c r="P8">
-        <v>0.00327005014359279</v>
+        <v>0.003302616000838911</v>
       </c>
       <c r="Q8">
-        <v>0.003231525129177466</v>
+        <v>0.003264095910554151</v>
       </c>
       <c r="R8">
-        <v>0.003249797595299246</v>
+        <v>0.003285169934746506</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -929,52 +929,52 @@
         <v>24</v>
       </c>
       <c r="C9">
-        <v>0.02409777717049449</v>
+        <v>0.02404977967869871</v>
       </c>
       <c r="D9">
-        <v>5.052552845789565e-05</v>
+        <v>4.985486897531225E-05</v>
       </c>
       <c r="E9">
-        <v>0.03223658303394287</v>
+        <v>0.03218104031132715</v>
       </c>
       <c r="F9">
-        <v>0.0003810940552232795</v>
+        <v>0.0003775181423179038</v>
       </c>
       <c r="G9">
-        <v>0.03500763584456418</v>
+        <v>0.03493983377709703</v>
       </c>
       <c r="H9">
-        <v>0.03570975950444338</v>
+        <v>0.03565144983140027</v>
       </c>
       <c r="I9">
-        <v>0.008149625116737235</v>
+        <v>0.008123961784979556</v>
       </c>
       <c r="J9">
-        <v>0.03387706333678618</v>
+        <v>0.03382003674927912</v>
       </c>
       <c r="K9">
-        <v>0.0002142334267311747</v>
+        <v>0.0002117570563854215</v>
       </c>
       <c r="L9">
-        <v>0.0003628908180589907</v>
+        <v>0.0003594346436521855</v>
       </c>
       <c r="M9">
-        <v>0.03722262717625558</v>
+        <v>0.03716305306551902</v>
       </c>
       <c r="N9">
-        <v>0.03735983698868001</v>
+        <v>0.03730015041953811</v>
       </c>
       <c r="O9">
-        <v>0.000414309123518427</v>
+        <v>0.0004093968227016879</v>
       </c>
       <c r="P9">
-        <v>0.0008583531732944011</v>
+        <v>0.0008521747136772236</v>
       </c>
       <c r="Q9">
-        <v>0.0237412678859261</v>
+        <v>0.02369426366761708</v>
       </c>
       <c r="R9">
-        <v>0.002537466196569058</v>
+        <v>0.002524147299375835</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -985,52 +985,52 @@
         <v>25</v>
       </c>
       <c r="C10">
-        <v>0.002368022296906636</v>
+        <v>0.002368309747582615</v>
       </c>
       <c r="D10">
-        <v>0.01211224579500212</v>
+        <v>0.01211112304397899</v>
       </c>
       <c r="E10">
-        <v>0.001097946271624636</v>
+        <v>0.001098156045299997</v>
       </c>
       <c r="F10">
-        <v>0.0090489691381957</v>
+        <v>0.009048465161528142</v>
       </c>
       <c r="G10">
-        <v>0.0005773563935108937</v>
+        <v>0.0005776222700454704</v>
       </c>
       <c r="H10">
-        <v>0.0006334029549962384</v>
+        <v>0.0006335468985106268</v>
       </c>
       <c r="I10">
-        <v>0.009625887308407357</v>
+        <v>0.009625330729169304</v>
       </c>
       <c r="J10">
-        <v>0.0008659756865764329</v>
+        <v>0.0008661578789399093</v>
       </c>
       <c r="K10">
-        <v>0.003315223273359291</v>
+        <v>0.003315461847215855</v>
       </c>
       <c r="L10">
-        <v>0.0104008786309973</v>
+        <v>0.01040010983537741</v>
       </c>
       <c r="M10">
-        <v>0.0003954073220143678</v>
+        <v>0.0003955068811220209</v>
       </c>
       <c r="N10">
-        <v>0.0003853034316727403</v>
+        <v>0.0003854009030061241</v>
       </c>
       <c r="O10">
-        <v>0.004179125480788761</v>
+        <v>0.004179812700650445</v>
       </c>
       <c r="P10">
-        <v>0.01545193968258504</v>
+        <v>0.01544998218948843</v>
       </c>
       <c r="Q10">
-        <v>0.002497623116002628</v>
+        <v>0.00249787928522636</v>
       </c>
       <c r="R10">
-        <v>0.0099031658596369</v>
+        <v>0.009902774976056962</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -1041,52 +1041,52 @@
         <v>26</v>
       </c>
       <c r="C11">
-        <v>0.0001446521402492472</v>
+        <v>0.0001377080474552458</v>
       </c>
       <c r="D11">
-        <v>2.574716986425964e-06</v>
+        <v>2.273273943805539E-06</v>
       </c>
       <c r="E11">
-        <v>8.002994480169158e-05</v>
+        <v>7.808798190377443E-05</v>
       </c>
       <c r="F11">
-        <v>1.274749118083081e-05</v>
+        <v>1.126794712851989E-05</v>
       </c>
       <c r="G11">
-        <v>5.948067026891595e-05</v>
+        <v>5.783569428620802E-05</v>
       </c>
       <c r="H11">
-        <v>4.751783472908115e-05</v>
+        <v>4.650361643636059E-05</v>
       </c>
       <c r="I11">
-        <v>5.125661737572813e-05</v>
+        <v>4.623304438174053E-05</v>
       </c>
       <c r="J11">
-        <v>6.832064212436329e-05</v>
+        <v>6.675224331382396E-05</v>
       </c>
       <c r="K11">
-        <v>6.977615971676864e-06</v>
+        <v>6.500837213948121E-06</v>
       </c>
       <c r="L11">
-        <v>3.068290412862369e-06</v>
+        <v>7.704963473314808E-06</v>
       </c>
       <c r="M11">
-        <v>4.889300392025837e-05</v>
+        <v>4.787712185157708E-05</v>
       </c>
       <c r="N11">
-        <v>5.16426047825783e-05</v>
+        <v>5.056869432671698E-05</v>
       </c>
       <c r="O11">
-        <v>0.01228747913334124</v>
+        <v>0.01237211955296751</v>
       </c>
       <c r="P11">
-        <v>9.863722149312944e-06</v>
+        <v>1.399529329535697E-05</v>
       </c>
       <c r="Q11">
-        <v>8.224065887993414e-05</v>
+        <v>7.967357799801027E-05</v>
       </c>
       <c r="R11">
-        <v>0.0002834526068558761</v>
+        <v>0.0002986321195706369</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -1097,52 +1097,52 @@
         <v>27</v>
       </c>
       <c r="C12">
-        <v>7.592313905553241e-05</v>
+        <v>7.582653349559491E-05</v>
       </c>
       <c r="D12">
-        <v>1.486552115264664e-05</v>
+        <v>1.484972417606451E-05</v>
       </c>
       <c r="E12">
-        <v>2.750946061622048e-05</v>
+        <v>2.747219003371535E-05</v>
       </c>
       <c r="F12">
-        <v>5.479403081999712e-05</v>
+        <v>5.473484602045871E-05</v>
       </c>
       <c r="G12">
-        <v>3.15938026059169e-05</v>
+        <v>3.153907645700483E-05</v>
       </c>
       <c r="H12">
-        <v>1.898308602857045e-05</v>
+        <v>1.895681109046546E-05</v>
       </c>
       <c r="I12">
-        <v>0.0001438663351028531</v>
+        <v>0.0001436999002607324</v>
       </c>
       <c r="J12">
-        <v>2.544454943522065e-05</v>
+        <v>2.540966744724191E-05</v>
       </c>
       <c r="K12">
-        <v>2.819756306357689e-05</v>
+        <v>2.816734336031948E-05</v>
       </c>
       <c r="L12">
-        <v>0.0003051131529273173</v>
+        <v>0.0003047910091329833</v>
       </c>
       <c r="M12">
-        <v>1.506488321386154e-05</v>
+        <v>1.504375533804523E-05</v>
       </c>
       <c r="N12">
-        <v>1.070332310431231e-05</v>
+        <v>1.0688247098724E-05</v>
       </c>
       <c r="O12">
-        <v>0.0001379655507548406</v>
+        <v>0.0001378004888912845</v>
       </c>
       <c r="P12">
-        <v>0.0008025328051504224</v>
+        <v>0.0008017284174034496</v>
       </c>
       <c r="Q12">
-        <v>0.0001793874937906444</v>
+        <v>0.0001791703598792712</v>
       </c>
       <c r="R12">
-        <v>0.0001927868973577279</v>
+        <v>0.0001925680935224281</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -1153,52 +1153,52 @@
         <v>28</v>
       </c>
       <c r="C13">
-        <v>0.002317792526741426</v>
+        <v>0.002329453296479954</v>
       </c>
       <c r="D13">
-        <v>7.850948098221912e-05</v>
+        <v>7.927823472374045E-05</v>
       </c>
       <c r="E13">
-        <v>0.002862083443910822</v>
+        <v>0.002874826563420155</v>
       </c>
       <c r="F13">
-        <v>0.0001889856145247116</v>
+        <v>0.0001908088857072861</v>
       </c>
       <c r="G13">
-        <v>0.003286215805117025</v>
+        <v>0.003302142538908502</v>
       </c>
       <c r="H13">
-        <v>0.002961851700296392</v>
+        <v>0.002974692178126101</v>
       </c>
       <c r="I13">
-        <v>0.00129874128616873</v>
+        <v>0.001306471345904191</v>
       </c>
       <c r="J13">
-        <v>0.002914038470614311</v>
+        <v>0.002926869461404105</v>
       </c>
       <c r="K13">
-        <v>8.014425656288277e-05</v>
+        <v>8.120905745650798E-05</v>
       </c>
       <c r="L13">
-        <v>0.0003405148787885599</v>
+        <v>0.0003434949514598064</v>
       </c>
       <c r="M13">
-        <v>0.003043267957927196</v>
+        <v>0.003056298619859066</v>
       </c>
       <c r="N13">
-        <v>0.00305309008587708</v>
+        <v>0.003066142682028332</v>
       </c>
       <c r="O13">
-        <v>0.0008527266020471728</v>
+        <v>0.000862087442372646</v>
       </c>
       <c r="P13">
-        <v>0.0005239422771418812</v>
+        <v>0.0005278395688413469</v>
       </c>
       <c r="Q13">
-        <v>0.002309262443136667</v>
+        <v>0.002320614798707375</v>
       </c>
       <c r="R13">
-        <v>0.0006897365941963578</v>
+        <v>0.0006951285304779802</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -1209,52 +1209,52 @@
         <v>29</v>
       </c>
       <c r="C14">
-        <v>0.004097573187866963</v>
+        <v>0.004093967473536235</v>
       </c>
       <c r="D14">
-        <v>0.0001169789258528807</v>
+        <v>0.0001168104146034567</v>
       </c>
       <c r="E14">
-        <v>0.005414428682872049</v>
+        <v>0.005410147349886115</v>
       </c>
       <c r="F14">
-        <v>0.0002838200222871141</v>
+        <v>0.0002834148423677319</v>
       </c>
       <c r="G14">
-        <v>0.005693810326241196</v>
+        <v>0.005688952694049541</v>
       </c>
       <c r="H14">
-        <v>0.005752303591844879</v>
+        <v>0.005747910495306283</v>
       </c>
       <c r="I14">
-        <v>0.001981111112672658</v>
+        <v>0.001979004789057549</v>
       </c>
       <c r="J14">
-        <v>0.005575622002669503</v>
+        <v>0.005571279402402573</v>
       </c>
       <c r="K14">
-        <v>0.0001434808328139624</v>
+        <v>0.00014325572299384</v>
       </c>
       <c r="L14">
-        <v>0.0004731658736785507</v>
+        <v>0.0004724930659111052</v>
       </c>
       <c r="M14">
-        <v>0.005948525305680603</v>
+        <v>0.005944039058142503</v>
       </c>
       <c r="N14">
-        <v>0.005968463862328123</v>
+        <v>0.00596396840154645</v>
       </c>
       <c r="O14">
-        <v>2.522431196695786e-05</v>
+        <v>2.659067424413317E-05</v>
       </c>
       <c r="P14">
-        <v>0.0006837752960533992</v>
+        <v>0.0006828590258653834</v>
       </c>
       <c r="Q14">
-        <v>0.004189603026662075</v>
+        <v>0.004185982492252278</v>
       </c>
       <c r="R14">
-        <v>0.0008573263438173457</v>
+        <v>0.0008561094096549126</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -1265,52 +1265,52 @@
         <v>30</v>
       </c>
       <c r="C15">
-        <v>0.00386753662060059</v>
+        <v>0.003865251709181256</v>
       </c>
       <c r="D15">
-        <v>8.866143433479333e-05</v>
+        <v>8.859114070984957E-05</v>
       </c>
       <c r="E15">
-        <v>0.004773944022986468</v>
+        <v>0.004771284940107957</v>
       </c>
       <c r="F15">
-        <v>0.0002517488732067236</v>
+        <v>0.0002515529582996174</v>
       </c>
       <c r="G15">
-        <v>0.005146531579014093</v>
+        <v>0.005143564207966892</v>
       </c>
       <c r="H15">
-        <v>0.005116655294743606</v>
+        <v>0.005113877155686072</v>
       </c>
       <c r="I15">
-        <v>0.001875593158766873</v>
+        <v>0.001874343630715748</v>
       </c>
       <c r="J15">
-        <v>0.004978916775272945</v>
+        <v>0.004976175749185151</v>
       </c>
       <c r="K15">
-        <v>0.0001461038445902953</v>
+        <v>0.0001459862757302131</v>
       </c>
       <c r="L15">
-        <v>0.0003786366395133629</v>
+        <v>0.0003783435831783087</v>
       </c>
       <c r="M15">
-        <v>0.005282878170876319</v>
+        <v>0.005280038361653243</v>
       </c>
       <c r="N15">
-        <v>0.00529885521919044</v>
+        <v>0.005296010015117773</v>
       </c>
       <c r="O15">
-        <v>0.001401580387076468</v>
+        <v>0.001400482641555717</v>
       </c>
       <c r="P15">
-        <v>0.0005303970490246803</v>
+        <v>0.00052999814035798</v>
       </c>
       <c r="Q15">
-        <v>0.003831605209830777</v>
+        <v>0.003829336956390083</v>
       </c>
       <c r="R15">
-        <v>0.0009143771336256047</v>
+        <v>0.0009137041242164736</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -1321,52 +1321,52 @@
         <v>31</v>
       </c>
       <c r="C16">
-        <v>0.03318576875750516</v>
+        <v>0.03317114583247872</v>
       </c>
       <c r="D16">
-        <v>0.04354427655731227</v>
+        <v>0.04352367069420222</v>
       </c>
       <c r="E16">
-        <v>0.03109463663468397</v>
+        <v>0.03108145932003291</v>
       </c>
       <c r="F16">
-        <v>0.0424627506273664</v>
+        <v>0.04244238763550941</v>
       </c>
       <c r="G16">
-        <v>0.03072195650607949</v>
+        <v>0.03070902637815405</v>
       </c>
       <c r="H16">
-        <v>0.03032197645163504</v>
+        <v>0.03030938469904344</v>
       </c>
       <c r="I16">
-        <v>0.03878349792129743</v>
+        <v>0.03876531201636418</v>
       </c>
       <c r="J16">
-        <v>0.03070392282961181</v>
+        <v>0.03069103017983522</v>
       </c>
       <c r="K16">
-        <v>0.04127685890254276</v>
+        <v>0.04125676624264169</v>
       </c>
       <c r="L16">
-        <v>0.04202627137598631</v>
+        <v>0.042005811604994</v>
       </c>
       <c r="M16">
-        <v>0.02988148006274835</v>
+        <v>0.02986916878782875</v>
       </c>
       <c r="N16">
-        <v>0.02984165718319881</v>
+        <v>0.02982937499066317</v>
       </c>
       <c r="O16">
-        <v>0.03278410273743367</v>
+        <v>0.03276803026790295</v>
       </c>
       <c r="P16">
-        <v>0.04235308681711836</v>
+        <v>0.04233249767183153</v>
       </c>
       <c r="Q16">
-        <v>0.03344298587225083</v>
+        <v>0.03342812284652787</v>
       </c>
       <c r="R16">
-        <v>0.04001325446964164</v>
+        <v>0.0399940718822757</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -1377,52 +1377,52 @@
         <v>32</v>
       </c>
       <c r="C17">
-        <v>0.03746973441822454</v>
+        <v>0.03750275789897594</v>
       </c>
       <c r="D17">
-        <v>0.03692425476464228</v>
+        <v>0.03694975911848594</v>
       </c>
       <c r="E17">
-        <v>0.03655990470786277</v>
+        <v>0.03659411969035842</v>
       </c>
       <c r="F17">
-        <v>0.03765648470623897</v>
+        <v>0.03768253423948415</v>
       </c>
       <c r="G17">
-        <v>0.03652255820300021</v>
+        <v>0.03656794534235207</v>
       </c>
       <c r="H17">
-        <v>0.03647074157784401</v>
+        <v>0.03650512907288098</v>
       </c>
       <c r="I17">
-        <v>0.03644654518316078</v>
+        <v>0.0364772225793278</v>
       </c>
       <c r="J17">
-        <v>0.03648783443653997</v>
+        <v>0.03652226959919234</v>
       </c>
       <c r="K17">
-        <v>0.03990003636361168</v>
+        <v>0.0399246099975059</v>
       </c>
       <c r="L17">
-        <v>0.03668626879235728</v>
+        <v>0.0367116694318696</v>
       </c>
       <c r="M17">
-        <v>0.03638311790830188</v>
+        <v>0.03641756332705944</v>
       </c>
       <c r="N17">
-        <v>0.03637225392219335</v>
+        <v>0.03640671304450512</v>
       </c>
       <c r="O17">
-        <v>0.03762961959349862</v>
+        <v>0.03764263220854546</v>
       </c>
       <c r="P17">
-        <v>0.03531024497069127</v>
+        <v>0.03533582304375123</v>
       </c>
       <c r="Q17">
-        <v>0.03701558779278108</v>
+        <v>0.03704838370341337</v>
       </c>
       <c r="R17">
-        <v>0.03709210927223882</v>
+        <v>0.03711993453909292</v>
       </c>
     </row>
   </sheetData>
